--- a/15-02-2020/db.xlsx
+++ b/15-02-2020/db.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="blog" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="HR" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
   <si>
     <t xml:space="preserve">DB NAME</t>
   </si>
@@ -210,6 +211,69 @@
   </si>
   <si>
     <t xml:space="preserve">Teamlead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyISAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InnoDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No FK support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO transactions support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table level lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row level lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has fulltext index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can not create fulltext index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stem leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 SQL Queries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 queries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commit → success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rollback → failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdul mateen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nike shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branded cheap nike shoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Foriegn Key kesay banaty hai? </t>
   </si>
 </sst>
 </file>
@@ -224,6 +288,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -245,6 +310,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -445,17 +511,17 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9336734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,24 +722,25 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="17.7040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="78.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="C1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -687,36 +754,46 @@
       <c r="B3" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="C3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="C6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="C7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="C8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="C10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
@@ -738,21 +815,28 @@
       <c r="B13" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="C13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="C14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="C17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
@@ -774,21 +858,25 @@
       <c r="B20" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="C22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
@@ -961,6 +1049,27 @@
         <v>59</v>
       </c>
     </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0"/>
+    </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>35</v>
@@ -998,7 +1107,127 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
